--- a/Project3711_M. R. Chani-Posse(2020).xlsx
+++ b/Project3711_M. R. Chani-Posse(2020).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/Finished &amp; Uploaded copy 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\neotrans\matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9106255D-3E7F-5944-B1BF-D524A34BEF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0194C-1C5A-411B-A8C4-A7122B768E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
+    <workbookView xWindow="16455" yWindow="2340" windowWidth="15945" windowHeight="18375" xr2:uid="{81AE83EB-E836-BF4F-BBAA-1EB2591582DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Project3711" sheetId="1" r:id="rId1"/>
@@ -537,55 +537,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>50799</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>784627</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>192424</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025FB9FC-E14A-4A97-C743-FFC439BFE02D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7478375" y="326736"/>
-          <a:ext cx="10662919" cy="6927658"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -907,17 +858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809D0959-4709-DE49-8CCD-872CF8E778E2}">
   <dimension ref="A1:C133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="3" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -939,7 +888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -950,7 +899,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -961,7 +910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -972,7 +921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -983,7 +932,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -994,7 +943,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +965,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +987,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1049,7 +998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1009,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1071,7 +1020,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1082,7 +1031,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1090,7 +1039,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1101,7 +1050,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1061,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1072,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1134,7 +1083,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1145,7 +1094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1102,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1113,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1135,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1197,7 +1146,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +1157,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1219,7 +1168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1230,7 +1179,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1241,7 +1190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1201,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1263,7 +1212,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1274,7 +1223,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1285,7 +1234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1296,7 +1245,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1307,7 +1256,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1318,7 +1267,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1329,7 +1278,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1340,7 +1289,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1351,7 +1300,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1362,7 +1311,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1373,7 +1322,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1384,7 +1333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1395,7 +1344,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1355,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1366,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1428,7 +1377,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1439,7 +1388,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1450,7 +1399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1410,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1472,7 +1421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1483,7 +1432,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1494,7 +1443,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1505,7 +1454,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1516,7 +1465,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1527,7 +1476,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1538,7 +1487,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1549,7 +1498,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1560,7 +1509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1571,7 +1520,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1582,7 +1531,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1593,7 +1542,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1604,7 +1553,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1615,7 +1564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1626,7 +1575,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1637,7 +1586,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1648,7 +1597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1659,7 +1608,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1670,7 +1619,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1681,7 +1630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -1692,7 +1641,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -1703,7 +1652,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -1714,7 +1663,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -1725,7 +1674,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -1736,7 +1685,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -1747,7 +1696,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -1755,7 +1704,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -1766,7 +1715,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -1777,7 +1726,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -1788,7 +1737,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -1799,7 +1748,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -1810,7 +1759,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -1821,7 +1770,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -1832,7 +1781,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -1843,7 +1792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -1854,7 +1803,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -1865,7 +1814,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -1876,7 +1825,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -1887,7 +1836,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -1898,7 +1847,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -1909,7 +1858,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -1920,7 +1869,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -1931,7 +1880,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -1942,7 +1891,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -1953,7 +1902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -1964,7 +1913,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -1975,7 +1924,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -1986,7 +1935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -1997,7 +1946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2008,7 +1957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -2019,7 +1968,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -2030,7 +1979,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -2041,7 +1990,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -2052,7 +2001,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -2063,7 +2012,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -2074,7 +2023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -2085,7 +2034,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -2096,7 +2045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2107,7 +2056,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -2118,7 +2067,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -2129,7 +2078,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -2140,7 +2089,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -2151,7 +2100,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -2162,7 +2111,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -2173,7 +2122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -2184,7 +2133,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -2195,7 +2144,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -2206,7 +2155,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>119</v>
       </c>
@@ -2217,7 +2166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -2228,7 +2177,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -2239,7 +2188,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2250,7 +2199,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>123</v>
       </c>
@@ -2261,7 +2210,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -2272,7 +2221,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -2283,7 +2232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -2294,7 +2243,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -2305,7 +2254,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -2316,7 +2265,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>129</v>
       </c>
@@ -2327,7 +2276,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -2338,7 +2287,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>131</v>
       </c>
@@ -2349,7 +2298,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -2360,7 +2309,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>133</v>
       </c>
@@ -2374,6 +2323,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>